--- a/data/trans_bre/P22_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P22_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>19,0%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,01%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,15%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 15,41</t>
+          <t>3,04; 14,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 12,88</t>
+          <t>1,37; 12,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 15,26</t>
+          <t>4,34; 15,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 10,81</t>
+          <t>1,01; 13,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,23; 44,89</t>
+          <t>-0,44; 9,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 38,14</t>
+          <t>-6,0; 4,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 48,59</t>
+          <t>7,63; 40,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 32,74</t>
+          <t>3,59; 37,45</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11,75; 48,84</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 44,6</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 30,32</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-13,82; 11,75</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,98</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,89</t>
+          <t>12,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>14,91</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,62%</t>
+          <t>27,29%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25,27%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40,43%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,53%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 15,19</t>
+          <t>1,69; 15,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 14,81</t>
+          <t>2,57; 14,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 13,35</t>
+          <t>1,91; 15,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 23,73</t>
+          <t>6,04; 19,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 52,64</t>
+          <t>5,37; 25,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,94; 48,55</t>
+          <t>-5,28; 13,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 45,14</t>
+          <t>5,82; 51,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,75; 89,08</t>
+          <t>6,89; 49,31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 51,2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17,58; 73,18</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 92,87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-13,87; 43,48</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,52</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-11,41</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>26,56%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,6%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-24,82%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 21,27</t>
+          <t>-6,36; 22,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 18,61</t>
+          <t>-4,69; 19,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 12,79</t>
+          <t>-13,55; 12,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-25,74; 3,73</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-13,27; 77,23</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 66,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 38,95</t>
+          <t>-15,49; 73,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-12,77; 68,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-27,87; 35,18</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-48,56; 10,53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>22,43%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23,01%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 13,38</t>
+          <t>5,03; 13,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 11,4</t>
+          <t>4,2; 11,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 11,54</t>
+          <t>4,31; 12,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 11,79</t>
+          <t>2,58; 11,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,65; 41,23</t>
+          <t>2,57; 11,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,39; 34,8</t>
+          <t>-4,09; 4,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 35,71</t>
+          <t>13,11; 40,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 36,28</t>
+          <t>11,39; 36,16</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11,75; 37,26</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 36,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,09; 35,76</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-9,88; 13,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P22_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P22_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,01</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,19</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>23,68%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>19,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>28,41%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>20,01%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>14,18%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-2,15%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.967078524397548</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.654749141439797</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.829155493481778</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.681176333692003</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5.090622313669218</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-1.076365756405728</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2660197136336525</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1856037131270716</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2790734299212008</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.2141075102618528</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1418088296757055</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.02605908792165612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,04; 14,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 12,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 15,36</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 13,92</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 9,88</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 4,51</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,63; 40,75</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>3,59; 37,45</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>11,75; 48,84</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 44,6</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 30,32</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-13,82; 11,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.779980383861069</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.003782926527855</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.13063190570816</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.489770988292539</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4385229155292441</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-6.216901514488424</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.09714539832637686</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.02567384402176864</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.109105775421619</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.03619513148516334</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.01210828218155815</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.1400927272906677</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.59694886196046</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.98891541999748</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.1774291674741</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>14.73114342637895</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.88488627408001</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>4.337361917608913</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4557127487753815</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3703135437227172</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.4793009576526968</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.4692862653964746</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.3032084901353987</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.1138551727812801</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,16</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,33</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,53</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,91</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>26,35%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>27,29%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>25,27%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>40,43%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>46,7%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>10,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 15,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 14,74</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 15,04</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,04; 19,82</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>5,37; 25,17</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; 13,13</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 51,94</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 49,31</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 51,2</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>17,58; 73,18</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>14,05; 92,87</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-13,87; 43,48</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.994546625718858</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.568330629253735</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.071868290545343</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12.08437500787765</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>14.9073186789375</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>3.56365070622024</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2742886821615788</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2520575765277391</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.2448684085076957</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.390397090731251</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.4670452509138943</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.1024885412387712</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>8,77</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-11,41</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>23,43%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20,68%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-2,6%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-24,82%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.347381167141496</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.665923390450484</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.617931379652483</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.725405487696511</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.371031832640183</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-5.28742590731614</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.06822859332125912</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.04171235433024734</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.04485650427834181</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.1626312408797596</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.140538556527145</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.1414007895073807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 22,01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 19,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,55; 12,23</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-25,74; 3,73</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-15,49; 73,12</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 68,8</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-27,87; 35,18</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-48,56; 10,53</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.87983821494313</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.34212123760224</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.75565064827937</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>19.3780308112766</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>25.16926455013413</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>13.0712742133201</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5456311579123122</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.477024873700561</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5200102583031961</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.7146897824413131</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.9286551735040027</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.4276627825544304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,97</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,79</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,09</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>24,94%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>22,43%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>23,01%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>20,19%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>20,86%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>10.25460662718648</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.238862529889301</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5601156383913841</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-11.14352741678659</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.2929068802885884</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2447250208463231</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.01387216720602727</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2440250511967986</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5,03; 13,25</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 11,58</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,31; 12,03</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 11,79</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 11,66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 4,81</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>13,11; 40,62</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>11,39; 36,16</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>11,75; 37,26</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 36,38</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>7,09; 35,76</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-9,88; 13,05</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.754790923648446</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.397858667574518</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.20523105447225</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-25.5865901901818</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.1332927361156602</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.09071188676888245</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2569122372265706</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4828560372550766</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>23.5593305157926</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.10673859848775</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.70731192860042</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.342879804473838</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.8667583458963407</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7625771793664204</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.4076162863544882</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.119938189775929</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>9.72957801703782</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.616684719269506</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.103106492901757</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.212310875818023</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.290142944460376</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.09686412999231342</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2758296926642071</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2185941247414682</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2318637504716872</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2054488975884978</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.2086066099635448</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.002438893746921978</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>5.818598235929452</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.007176936834261</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.281205834772747</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.634415604889502</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.56789126517518</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.342811077581904</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1551928162808783</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1069281495825534</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1137951803171413</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.06872242750315437</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.07094527791947704</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1041802961011249</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.3088832400781</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.51897854078631</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.10558361111657</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.76915224166822</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>11.65837591730741</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>4.626851507174476</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4447100024242977</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3527645896402604</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3725915183597583</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3631400826263653</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.3576414713984667</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.1236385021696013</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
